--- a/practica2/trunk/TDAs/doc/metricas/metricas_listaEnlazada.xlsx
+++ b/practica2/trunk/TDAs/doc/metricas/metricas_listaEnlazada.xlsx
@@ -664,7 +664,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -705,7 +705,6 @@
     <xf numFmtId="21" fontId="4" fillId="5" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="4" applyBorder="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1096,10 +1095,10 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.34782608695652206</c:v>
+                  <c:v>0.25806451612903264</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65217391304347794</c:v>
+                  <c:v>0.74193548387096731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,7 +1686,7 @@
   <dimension ref="A1:IU37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1706,19 +1705,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
@@ -1762,43 +1761,43 @@
     </row>
     <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="48" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="16">
         <v>4</v>
@@ -1822,20 +1821,20 @@
       <c r="I6" s="17">
         <v>0</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="31">
         <f>G6+I6</f>
         <v>6.9444444444444198E-4</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="7">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7">
         <v>70</v>
-      </c>
-      <c r="C7" s="7">
-        <v>56</v>
       </c>
       <c r="D7" s="8">
         <v>2.7777777777777776E-2</v>
@@ -1863,13 +1862,13 @@
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="7">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C8" s="7">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="D8" s="8">
         <v>3.4722222222222224E-2</v>
@@ -1878,11 +1877,11 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="F8" s="8">
-        <v>0.74652777777777779</v>
+        <v>0.77430555555555547</v>
       </c>
       <c r="G8" s="8">
         <f>F8-E8</f>
-        <v>2.0833333333333259E-2</v>
+        <v>4.8611111111110938E-2</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -1892,11 +1891,11 @@
       </c>
       <c r="J8" s="19">
         <f>G8+I8</f>
-        <v>4.8611111111111036E-2</v>
+        <v>7.6388888888888715E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="8"/>
@@ -1914,143 +1913,143 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23">
         <f>F10-E10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25">
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24">
         <f>G10+I10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="25">
         <f>SUM(B6:B10)</f>
-        <v>174</v>
-      </c>
-      <c r="C11" s="26">
+        <v>235</v>
+      </c>
+      <c r="C11" s="25">
         <f>SUM(C6:C10)</f>
-        <v>177</v>
-      </c>
-      <c r="D11" s="27">
+        <v>264</v>
+      </c>
+      <c r="D11" s="26">
         <f>SUM(D6:D10)</f>
         <v>6.3194444444444442E-2</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27">
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26">
         <f>SUM(G6:G10)</f>
-        <v>5.2083333333333259E-2</v>
-      </c>
-      <c r="H11" s="28">
+        <v>7.9861111111110938E-2</v>
+      </c>
+      <c r="H11" s="27">
         <f>SUM(H6:H10)</f>
         <v>2</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I11" s="28">
         <f>SUM(I6:I10)</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <f>SUM(J6:J10)</f>
-        <v>7.9861111111111036E-2</v>
+        <v>0.10763888888888871</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <f>IF(EXACT($C$11, 0),"-",ABS($B$11-$C$11)/$C$11)</f>
-        <v>1.6949152542372881E-2</v>
+        <v>0.10984848484848485</v>
       </c>
       <c r="D12" s="5"/>
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="44"/>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <f>C11</f>
-        <v>177</v>
+        <v>264</v>
       </c>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <f>IF(EXACT($B$15,0),"-",$B$15/((J11-INT(J11))*24))</f>
-        <v>92.347826086956616</v>
+        <v>102.19354838709694</v>
       </c>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <f>IF(EXACT($B$15,0),"-",H11/($B$15/10))</f>
-        <v>0.11299435028248588</v>
+        <v>7.575757575757576E-2</v>
       </c>
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="37">
         <f>IF(EXACT($B$15,0),"-",H11/$B$15)</f>
-        <v>1.1299435028248588E-2</v>
-      </c>
-      <c r="C18" s="46" t="s">
+        <v>7.575757575757576E-3</v>
+      </c>
+      <c r="C18" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="38">
         <f>I11</f>
         <v>2.7777777777777776E-2</v>
       </c>
-      <c r="C19" s="42">
+      <c r="C19" s="41">
         <f>IF(EXACT(J11,0),5%,B19/J11)</f>
-        <v>0.34782608695652206</v>
+        <v>0.25806451612903264</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="40">
         <f>G11</f>
-        <v>5.2083333333333259E-2</v>
-      </c>
-      <c r="C20" s="43">
+        <v>7.9861111111110938E-2</v>
+      </c>
+      <c r="C20" s="42">
         <f>IF(EXACT(J11,0),95%,B20/J11)</f>
-        <v>0.65217391304347794</v>
+        <v>0.74193548387096731</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
